--- a/structure.xlsx
+++ b/structure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\demo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\script2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C2EAD0-1482-4AC8-AD6D-C502411392F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E2B61F-EE15-43C6-AACC-85F7F9BEF3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,12 +519,14 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.06640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/structure.xlsx
+++ b/structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\script2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E2B61F-EE15-43C6-AACC-85F7F9BEF3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB4A3F0-5BC8-48F6-913B-0EF9927A3F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="46">
   <si>
     <t>A1</t>
   </si>
@@ -97,12 +97,6 @@
   </si>
   <si>
     <t>C3</t>
-  </si>
-  <si>
-    <t>ODF1</t>
-  </si>
-  <si>
-    <t>ODF-4(租用)</t>
   </si>
   <si>
     <t>C4</t>
@@ -165,6 +159,18 @@
   </si>
   <si>
     <t>京澳中心汇聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -532,16 +538,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -552,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -563,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -574,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -585,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -596,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -607,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -618,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -629,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -640,7 +646,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -651,7 +657,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -662,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -673,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -684,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -695,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -706,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -717,7 +723,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -728,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -739,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -750,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -761,7 +767,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -772,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -783,7 +789,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -794,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -805,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -816,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -827,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -838,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -849,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -860,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -871,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -882,7 +888,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -893,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -904,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
@@ -915,7 +921,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -926,128 +932,128 @@
         <v>22</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>23</v>
+      <c r="A42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="3" t="s">
-        <v>23</v>
+      <c r="A46" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>26</v>
+      <c r="A47" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -1055,10 +1061,10 @@
         <v>26</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -1066,10 +1072,10 @@
         <v>26</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -1077,10 +1083,10 @@
         <v>26</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
@@ -1088,10 +1094,10 @@
         <v>26</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -1102,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
@@ -1110,10 +1116,10 @@
         <v>27</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -1121,10 +1127,10 @@
         <v>27</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
@@ -1132,10 +1138,10 @@
         <v>27</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -1143,10 +1149,10 @@
         <v>27</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
@@ -1157,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -1168,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -1179,40 +1185,40 @@
         <v>3</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="2" t="s">
-        <v>29</v>
+      <c r="A62" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
@@ -1220,10 +1226,10 @@
         <v>29</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
@@ -1231,208 +1237,109 @@
         <v>29</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>42</v>
+      <c r="A68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="2">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>42</v>
+      <c r="C69" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" s="3" t="s">
-        <v>30</v>
+      <c r="A71" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73" s="2" t="s">
-        <v>31</v>
+      <c r="A73" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="2">
-        <v>6</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
